--- a/cos/cos-staff.xlsx
+++ b/cos/cos-staff.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garza/Development-vpaa/csv-tool/cos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C2442-B685-B542-A72E-4AD2C8D08D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF74AA0-313C-9E47-9995-8BA1A496E8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20580" yWindow="500" windowWidth="39580" windowHeight="32000" xr2:uid="{AC323BA3-BC2A-B54B-843E-E2BB2EE1F6D8}"/>
+    <workbookView xWindow="2000" yWindow="500" windowWidth="39580" windowHeight="32000" xr2:uid="{AC323BA3-BC2A-B54B-843E-E2BB2EE1F6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="404">
   <si>
     <t>Last</t>
   </si>
@@ -1403,7 +1403,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1540,10 +1540,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DE528AF-371D-6D46-B57E-146D62137C9D}" name="Table28" displayName="Table28" ref="A1:Q62" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q62" xr:uid="{8DE528AF-371D-6D46-B57E-146D62137C9D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q62">
-    <sortCondition ref="C1:C62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DE528AF-371D-6D46-B57E-146D62137C9D}" name="Table28" displayName="Table28" ref="A1:Q61" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:Q61" xr:uid="{8DE528AF-371D-6D46-B57E-146D62137C9D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q61">
+    <sortCondition ref="C1:C61"/>
   </sortState>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{E38BB983-16B4-C446-8A90-AE8C1273BF5A}" name="Last" dataDxfId="16"/>
@@ -1865,10 +1865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB96BF8D-3471-414A-B7BD-C56AFC7CC794}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1993,23 +1993,23 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="J3" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" t="s">
         <v>240</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" t="s">
         <v>242</v>
       </c>
       <c r="M3" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/neuroscience-developmental-and-regenerative-biology/staff/alvarez-antonio</v>
+        <v>faculty/_blocks/integrative-biology/staff/alvarez-antonio</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -2035,10 +2035,10 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="J4" t="s">
         <v>240</v>
@@ -2051,12 +2051,12 @@
       </c>
       <c r="M4" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/integrative-biology/staff/alvarez-antonio</v>
+        <v>faculty/_blocks/molecular-microbiology-and-immunology/staff/alvarez-antonio</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2077,28 +2077,28 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J5" t="s">
+        <v>399</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="7" t="s">
         <v>242</v>
       </c>
       <c r="M5" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/molecular-microbiology-and-immunology/staff/alvarez-antonio</v>
+        <v>faculty/_blocks/neuroscience-developmental-and-regenerative-biology/staff/alvarez-antonio</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       <c r="K20" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="7" t="s">
         <v>357</v>
       </c>
       <c r="M20" s="5" t="str">
@@ -3050,7 +3050,7 @@
       <c r="K29" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="7" t="s">
         <v>338</v>
       </c>
       <c r="M29" s="5" t="str">
@@ -3066,61 +3066,61 @@
     </row>
     <row r="30" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>334</v>
+        <v>62</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E30" s="5" t="s">
-        <v>400</v>
+        <v>64</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J30" t="s">
-        <v>336</v>
+        <v>23</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L30" t="s">
-        <v>338</v>
+        <v>66</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="M30" s="5" t="str">
-        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/molecular-microbiology-and-immunology/staff/marshall-janice</v>
+        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>about/_blocks/staff/matiella-terri</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="5" t="s">
-        <v>339</v>
-      </c>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -3131,17 +3131,17 @@
         <v>23</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="M31" s="5" t="str">
         <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/matiella-terri</v>
+        <v>about/_blocks/staff/nash-kelly</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
@@ -3150,40 +3150,38 @@
     </row>
     <row r="32" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="5" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>72</v>
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>74</v>
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
       </c>
       <c r="M32" s="5" t="str">
-        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/nash-kelly</v>
+        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>faculty/_blocks/integrative-biology/staff/negrete-cheryl</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
@@ -3192,17 +3190,19 @@
     </row>
     <row r="33" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>258</v>
+      </c>
       <c r="E33" s="5" t="s">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -3213,17 +3213,15 @@
         <v>239</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>268</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="K33" s="7"/>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M33" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/integrative-biology/staff/negrete-cheryl</v>
+        <v>faculty/_blocks/integrative-biology/staff/padilla-susana</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -3232,19 +3230,17 @@
     </row>
     <row r="34" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>258</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="D34" s="8"/>
       <c r="E34" s="5" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -3255,15 +3251,17 @@
         <v>239</v>
       </c>
       <c r="J34" t="s">
-        <v>273</v>
-      </c>
-      <c r="K34" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="L34" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M34" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/integrative-biology/staff/padilla-susana</v>
+        <v>faculty/_blocks/integrative-biology/staff/phillips-michelle</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
@@ -3272,38 +3270,38 @@
     </row>
     <row r="35" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="5" t="s">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J35" t="s">
-        <v>279</v>
+        <v>23</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L35" t="s">
-        <v>262</v>
+        <v>80</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="M35" s="5" t="str">
-        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/integrative-biology/staff/phillips-michelle</v>
+        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>about/_blocks/staff/pouncy-tempestt</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -3312,38 +3310,38 @@
     </row>
     <row r="36" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="5" t="s">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>79</v>
+        <v>239</v>
+      </c>
+      <c r="J36" t="s">
+        <v>285</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>81</v>
+        <v>286</v>
+      </c>
+      <c r="L36" t="s">
+        <v>287</v>
       </c>
       <c r="M36" s="5" t="str">
-        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/pouncy-tempestt</v>
+        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>faculty/_blocks/integrative-biology/staff/quezada-steven</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -3352,38 +3350,38 @@
     </row>
     <row r="37" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="5" t="s">
-        <v>284</v>
+        <v>85</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J37" t="s">
-        <v>285</v>
+        <v>23</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L37" t="s">
-        <v>287</v>
+        <v>87</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="M37" s="5" t="str">
-        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/integrative-biology/staff/quezada-steven</v>
+        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>about/_blocks/staff/ramirez-patty</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
@@ -3392,17 +3390,17 @@
     </row>
     <row r="38" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
@@ -3413,17 +3411,15 @@
         <v>23</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>88</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L38" s="13"/>
       <c r="M38" s="5" t="str">
         <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/ramirez-patty</v>
+        <v>about/_blocks/staff/richardson-roxana</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
@@ -3432,17 +3428,17 @@
     </row>
     <row r="39" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
@@ -3453,15 +3449,17 @@
         <v>23</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L39" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="M39" s="5" t="str">
         <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/richardson-roxana</v>
+        <v>about/_blocks/staff/riveros-magda</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3470,17 +3468,17 @@
     </row>
     <row r="40" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="5" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -3491,17 +3489,17 @@
         <v>23</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M40" s="5" t="str">
         <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/riveros-magda</v>
+        <v>about/_blocks/staff/roberts-dawn</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
@@ -3510,38 +3508,36 @@
     </row>
     <row r="41" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="5" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>108</v>
+        <v>180</v>
+      </c>
+      <c r="J41" t="s">
+        <v>211</v>
+      </c>
+      <c r="K41" s="7"/>
+      <c r="L41" t="s">
+        <v>212</v>
       </c>
       <c r="M41" s="5" t="str">
-        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/roberts-dawn</v>
+        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>faculty/_blocks/computer-science/staff/rojas-karina</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -3550,13 +3546,13 @@
     </row>
     <row r="42" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="5" t="s">
@@ -3565,21 +3561,23 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>180</v>
+        <v>301</v>
       </c>
       <c r="J42" t="s">
-        <v>211</v>
-      </c>
-      <c r="K42" s="7"/>
+        <v>305</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="L42" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="M42" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/computer-science/staff/rojas-karina</v>
+        <v>faculty/_blocks/mathematics/staff/rosales-ilse</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
@@ -3588,38 +3586,38 @@
     </row>
     <row r="43" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>302</v>
+        <v>213</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="J43" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="M43" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/mathematics/staff/rosales-ilse</v>
+        <v>faculty/_blocks/computer-science/staff/rozelle-anne</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
@@ -3628,13 +3626,13 @@
     </row>
     <row r="44" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>214</v>
+        <v>309</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="5" t="s">
@@ -3643,23 +3641,23 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>180</v>
+        <v>301</v>
       </c>
       <c r="J44" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
       <c r="M44" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/computer-science/staff/rozelle-anne</v>
+        <v>faculty/_blocks/mathematics/staff/salazar-iliana</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -3668,38 +3666,38 @@
     </row>
     <row r="45" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>309</v>
+        <v>156</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="5" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="J45" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L45" t="s">
-        <v>307</v>
+        <v>160</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="M45" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/mathematics/staff/salazar-iliana</v>
+        <v>faculty/_blocks/chemistry/staff/schafer-lefevre-melissa</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
@@ -3708,17 +3706,19 @@
     </row>
     <row r="46" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E46" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3729,17 +3729,17 @@
         <v>144</v>
       </c>
       <c r="J46" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M46" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/chemistry/staff/schafer-lefevre-melissa</v>
+        <v>faculty/_blocks/chemistry/staff/schaller-ruth</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -3748,40 +3748,38 @@
     </row>
     <row r="47" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>20</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D47" s="8"/>
       <c r="E47" s="5" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J47" t="s">
-        <v>166</v>
+        <v>23</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>168</v>
+        <v>114</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="M47" s="5" t="str">
-        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/chemistry/staff/schaller-ruth</v>
+        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>about/_blocks/staff/schoensee-ryan</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
@@ -3790,17 +3788,19 @@
     </row>
     <row r="48" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E48" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
@@ -3811,17 +3811,17 @@
         <v>23</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M48" s="5" t="str">
         <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/schoensee-ryan</v>
+        <v>about/_blocks/staff/silva-david</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -3830,40 +3830,38 @@
     </row>
     <row r="49" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>117</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="D49" s="8"/>
       <c r="E49" s="5" t="s">
-        <v>119</v>
+        <v>386</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>22</v>
+        <v>373</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>120</v>
+        <v>374</v>
+      </c>
+      <c r="J49" t="s">
+        <v>387</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>121</v>
+        <v>388</v>
+      </c>
+      <c r="L49" t="s">
+        <v>389</v>
       </c>
       <c r="M49" s="5" t="str">
-        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/silva-david</v>
+        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>faculty/_blocks/physics-and-astronomy/staff/stafford-david</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
@@ -3872,38 +3870,35 @@
     </row>
     <row r="50" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>117</v>
+        <v>341</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="5" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="J50" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L50" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="M50" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/physics-and-astronomy/staff/stafford-david</v>
+        <v>faculty/_blocks/molecular-microbiology-and-immunology/staff/streton-justin</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -3912,17 +3907,17 @@
     </row>
     <row r="51" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="5" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -3933,14 +3928,12 @@
         <v>326</v>
       </c>
       <c r="J51" t="s">
-        <v>344</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>345</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="K51" s="7"/>
       <c r="M51" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/molecular-microbiology-and-immunology/staff/streton-justin</v>
+        <v>faculty/_blocks/molecular-microbiology-and-immunology/staff/trejo-araceli</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -3949,33 +3942,38 @@
     </row>
     <row r="52" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D52" s="8"/>
+        <v>289</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>258</v>
+      </c>
       <c r="E52" s="5" t="s">
-        <v>398</v>
+        <v>165</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>326</v>
+        <v>239</v>
       </c>
       <c r="J52" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="K52" s="7"/>
+      <c r="L52" t="s">
+        <v>292</v>
+      </c>
       <c r="M52" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/molecular-microbiology-and-immunology/staff/trejo-araceli</v>
+        <v>faculty/_blocks/integrative-biology/staff/trevino-lisa</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
@@ -3984,38 +3982,36 @@
     </row>
     <row r="53" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>288</v>
+        <v>122</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>258</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="5" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J53" t="s">
-        <v>291</v>
-      </c>
-      <c r="K53" s="7"/>
-      <c r="L53" t="s">
-        <v>292</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L53" s="7"/>
       <c r="M53" s="5" t="str">
-        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/integrative-biology/staff/trevino-lisa</v>
+        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>about/_blocks/staff/trevino-monica</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -4024,36 +4020,38 @@
     </row>
     <row r="54" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>122</v>
+        <v>390</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="5" t="s">
-        <v>124</v>
+        <v>393</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
-        <v>22</v>
+        <v>373</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>125</v>
+        <v>374</v>
+      </c>
+      <c r="J54" t="s">
+        <v>394</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L54" s="7"/>
+        <v>395</v>
+      </c>
+      <c r="L54" t="s">
+        <v>396</v>
+      </c>
       <c r="M54" s="5" t="str">
-        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/trevino-monica</v>
+        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>faculty/_blocks/physics-and-astronomy/staff/tucker-belinda</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -4062,38 +4060,38 @@
     </row>
     <row r="55" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>390</v>
+        <v>313</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>391</v>
+        <v>314</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="5" t="s">
-        <v>393</v>
+        <v>315</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>374</v>
+        <v>301</v>
       </c>
       <c r="J55" t="s">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>395</v>
+        <v>317</v>
       </c>
       <c r="L55" t="s">
-        <v>396</v>
+        <v>307</v>
       </c>
       <c r="M55" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/physics-and-astronomy/staff/tucker-belinda</v>
+        <v>faculty/_blocks/mathematics/staff/vicencio-alejandra</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -4102,17 +4100,17 @@
     </row>
     <row r="56" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
@@ -4123,17 +4121,17 @@
         <v>301</v>
       </c>
       <c r="J56" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L56" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M56" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/mathematics/staff/vicencio-alejandra</v>
+        <v>faculty/_blocks/mathematics/staff/walls-carey</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -4142,38 +4140,38 @@
     </row>
     <row r="57" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>318</v>
+        <v>169</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>320</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="5" t="s">
-        <v>321</v>
+        <v>172</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5" t="s">
-        <v>300</v>
+        <v>143</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="J57" t="s">
-        <v>322</v>
+        <v>173</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L57" t="s">
-        <v>324</v>
+        <v>174</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="M57" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/mathematics/staff/walls-carey</v>
+        <v>faculty/_blocks/chemistry/staff/wherritt-daniel</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -4182,38 +4180,36 @@
     </row>
     <row r="58" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>169</v>
+        <v>365</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>170</v>
+        <v>366</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>171</v>
+        <v>367</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="5" t="s">
-        <v>172</v>
+        <v>398</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5" t="s">
-        <v>143</v>
+        <v>350</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J58" t="s">
-        <v>173</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>175</v>
+        <v>399</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="M58" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/chemistry/staff/wherritt-daniel</v>
+        <v>faculty/_blocks/neuroscience-developmental-and-regenerative-biology/staff/wilson-jaylon</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -4222,36 +4218,38 @@
     </row>
     <row r="59" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="5" t="s">
-        <v>398</v>
+        <v>296</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
-        <v>350</v>
+        <v>238</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="13" t="s">
-        <v>369</v>
+        <v>239</v>
+      </c>
+      <c r="J59" t="s">
+        <v>297</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L59" t="s">
+        <v>299</v>
       </c>
       <c r="M59" s="5" t="str">
         <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/neuroscience-developmental-and-regenerative-biology/staff/wilson-jaylon</v>
+        <v>faculty/_blocks/integrative-biology/staff/wright-shantae</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -4260,38 +4258,38 @@
     </row>
     <row r="60" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="5" t="s">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J60" t="s">
-        <v>297</v>
+        <v>23</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L60" t="s">
-        <v>299</v>
+        <v>132</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="M60" s="5" t="str">
-        <f>_xlfn.CONCAT("faculty/_blocks/", Table28[[#This Row],[Tag]], "/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>faculty/_blocks/integrative-biology/staff/wright-shantae</v>
+        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
+        <v>about/_blocks/staff/yancey-kristine</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -4300,17 +4298,19 @@
     </row>
     <row r="61" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E61" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
@@ -4321,64 +4321,22 @@
         <v>23</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M61" s="5" t="str">
         <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/yancey-kristine</v>
+        <v>about/_blocks/staff/yuen-timothy</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-    </row>
-    <row r="62" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M62" s="5" t="str">
-        <f>_xlfn.CONCAT("about/_blocks/staff/", Table28[[#This Row],[LastFirst]])</f>
-        <v>about/_blocks/staff/yuen-timothy</v>
-      </c>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
